--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -521,6 +521,126 @@
   </si>
   <si>
     <t>CE CO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -1021,22 +1141,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3848,10 +3968,10 @@
   <dimension ref="A1:AR141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD38"/>
+      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,18 +4081,18 @@
       <c r="I2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="63"/>
       <c r="O2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
       <c r="T2" s="61"/>
       <c r="U2" s="62" t="s">
         <v>42</v>
@@ -3982,10 +4102,10 @@
         <v>43</v>
       </c>
       <c r="X2" s="61"/>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="65"/>
+      <c r="Z2" s="67"/>
       <c r="AA2" s="62" t="s">
         <v>44</v>
       </c>
@@ -4138,31 +4258,126 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="E4" s="46"/>
-      <c r="I4" s="36"/>
-      <c r="K4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="40"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AK4"/>
-      <c r="AL4" s="18"/>
-      <c r="AN4" s="34"/>
+      <c r="A4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA4" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB4" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC4" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH4" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI4" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK4" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL4" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM4" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN4" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="AP4" s="18"/>
       <c r="AR4" s="18"/>
     </row>
@@ -5664,11 +5879,6 @@
   </sheetData>
   <autoFilter ref="A1:AP49"/>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -5679,98 +5889,23 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 AJ4 AL4 AN4">
     <cfRule type="cellIs" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="cellIs" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="cellIs" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Z4">
-    <cfRule type="cellIs" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD4">
-    <cfRule type="cellIs" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF4">
-    <cfRule type="cellIs" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH4">
-    <cfRule type="cellIs" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4">
-    <cfRule type="cellIs" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4 AL6:AL36">
+  <conditionalFormatting sqref="AL6:AL36">
     <cfRule type="cellIs" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN4 AN6:AN36">
+  <conditionalFormatting sqref="AN6:AN36">
     <cfRule type="cellIs" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6006,34 +6141,34 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="69" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -6672,16 +6807,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="E2"/>
     <mergeCell ref="F2"/>
     <mergeCell ref="G2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="3" operator="lessThan">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -641,6 +641,33 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>276/009</t>
+  </si>
+  <si>
+    <t>Reembolso infonavit</t>
+  </si>
+  <si>
+    <t>Deducciones</t>
+  </si>
+  <si>
+    <t>Comprobacion</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>NETO</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>VALES</t>
+  </si>
+  <si>
+    <t>DIF</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1120,6 +1147,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,7 +1563,7 @@
       <c r="J1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="60" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="47" t="s">
@@ -1542,39 +1572,39 @@
       <c r="M1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="58"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="57" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="58"/>
+      <c r="T1" s="59"/>
       <c r="U1" s="47" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="57" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="57" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="58"/>
+      <c r="AB1" s="59"/>
       <c r="AC1" s="47" t="s">
         <v>21</v>
       </c>
@@ -3967,7 +3997,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AR141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4066,74 +4096,74 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="60" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="62" t="s">
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="60" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="66" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="62" t="s">
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="60" t="s">
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="62" t="s">
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="60" t="s">
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="60" t="s">
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="62" t="s">
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="63"/>
+      <c r="AN2" s="64"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6071,11 +6101,11 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD39"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6093,9 +6123,9 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="31" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.5703125" style="25" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -6141,34 +6171,34 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -6221,8 +6251,27 @@
       <c r="N3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="O3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="W3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -7013,7 +7062,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:U3 W3 O1:S1048576">
+  <conditionalFormatting sqref="W3 O1:S2 O4:S1048576">
     <cfRule type="cellIs" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7031,117 +7080,131 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="60" t="s">
+      <c r="E1" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="62"/>
+      <c r="E2" s="57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>Eduardo</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -518,9 +518,6 @@
   </si>
   <si>
     <t>Vales de despensa</t>
-  </si>
-  <si>
-    <t>CE CO</t>
   </si>
   <si>
     <t>1</t>
@@ -1171,22 +1168,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1493,126 +1490,123 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AD121"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="A2:AD2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="41.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="23" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="40.85546875" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
+    <col min="29" max="29" width="40.85546875" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="47" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="47" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="P1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="59"/>
+      <c r="R1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="U1" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="V1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="58" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="58" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="49" t="s">
+      <c r="AC1" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -1642,2347 +1636,2301 @@
       <c r="AA2" s="55"/>
       <c r="AB2" s="55"/>
       <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-    </row>
-    <row r="3" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="T3" s="55"/>
       <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AD3" s="52"/>
-    </row>
-    <row r="4" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="55"/>
+      <c r="AC3" s="52"/>
+    </row>
+    <row r="4" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="T4" s="55"/>
       <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AD4" s="52"/>
-    </row>
-    <row r="5" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="55"/>
+      <c r="AC4" s="52"/>
+    </row>
+    <row r="5" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="T5" s="55"/>
       <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AD5" s="52"/>
-    </row>
-    <row r="6" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="55"/>
+      <c r="AC5" s="52"/>
+    </row>
+    <row r="6" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="T6" s="55"/>
       <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AD6" s="52"/>
-    </row>
-    <row r="7" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="55"/>
+      <c r="AC6" s="52"/>
+    </row>
+    <row r="7" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="T7" s="55"/>
       <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AD7" s="52"/>
-    </row>
-    <row r="8" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="55"/>
+      <c r="AC7" s="52"/>
+    </row>
+    <row r="8" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="T8" s="55"/>
       <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AD8" s="52"/>
-    </row>
-    <row r="9" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="55"/>
+      <c r="AC8" s="52"/>
+    </row>
+    <row r="9" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="T9" s="55"/>
       <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AD9" s="52"/>
-    </row>
-    <row r="10" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="55"/>
+      <c r="AC9" s="52"/>
+    </row>
+    <row r="10" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="T10" s="55"/>
       <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AD10" s="52"/>
-    </row>
-    <row r="11" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="55"/>
+      <c r="AC10" s="52"/>
+    </row>
+    <row r="11" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="T11" s="55"/>
       <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AD11" s="52"/>
-    </row>
-    <row r="12" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="55"/>
+      <c r="AC11" s="52"/>
+    </row>
+    <row r="12" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="T12" s="55"/>
       <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AD12" s="52"/>
-    </row>
-    <row r="13" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="55"/>
+      <c r="AC12" s="52"/>
+    </row>
+    <row r="13" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="T13" s="55"/>
       <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AD13" s="52"/>
-    </row>
-    <row r="14" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="55"/>
+      <c r="AC13" s="52"/>
+    </row>
+    <row r="14" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="T14" s="55"/>
       <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AD14" s="52"/>
-    </row>
-    <row r="15" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="55"/>
+      <c r="AC14" s="52"/>
+    </row>
+    <row r="15" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="T15" s="55"/>
       <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AD15" s="52"/>
-    </row>
-    <row r="16" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="55"/>
+      <c r="AC15" s="52"/>
+    </row>
+    <row r="16" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="T16" s="55"/>
       <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AD16" s="52"/>
-    </row>
-    <row r="17" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="55"/>
+      <c r="AC16" s="52"/>
+    </row>
+    <row r="17" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="T17" s="55"/>
       <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AD17" s="52"/>
-    </row>
-    <row r="18" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="55"/>
+      <c r="AC17" s="52"/>
+    </row>
+    <row r="18" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="T18" s="55"/>
       <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AD18" s="52"/>
-    </row>
-    <row r="19" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="55"/>
+      <c r="AC18" s="52"/>
+    </row>
+    <row r="19" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="T19" s="55"/>
       <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AD19" s="52"/>
-    </row>
-    <row r="20" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="55"/>
+      <c r="AC19" s="52"/>
+    </row>
+    <row r="20" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="T20" s="55"/>
       <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AD20" s="52"/>
-    </row>
-    <row r="21" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="55"/>
+      <c r="AC20" s="52"/>
+    </row>
+    <row r="21" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="T21" s="55"/>
       <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AD21" s="52"/>
-    </row>
-    <row r="22" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="55"/>
+      <c r="AC21" s="52"/>
+    </row>
+    <row r="22" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="T22" s="55"/>
       <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AD22" s="52"/>
-    </row>
-    <row r="23" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="55"/>
+      <c r="AC22" s="52"/>
+    </row>
+    <row r="23" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="T23" s="55"/>
       <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AD23" s="52"/>
-    </row>
-    <row r="24" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="55"/>
+      <c r="AC23" s="52"/>
+    </row>
+    <row r="24" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="T24" s="55"/>
       <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AD24" s="52"/>
-    </row>
-    <row r="25" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="55"/>
+      <c r="AC24" s="52"/>
+    </row>
+    <row r="25" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="T25" s="55"/>
       <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AD25" s="52"/>
-    </row>
-    <row r="26" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="55"/>
+      <c r="AC25" s="52"/>
+    </row>
+    <row r="26" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="T26" s="55"/>
       <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AD26" s="52"/>
-    </row>
-    <row r="27" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="55"/>
+      <c r="AC26" s="52"/>
+    </row>
+    <row r="27" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="T27" s="55"/>
       <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AD27" s="52"/>
-    </row>
-    <row r="28" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="55"/>
+      <c r="AC27" s="52"/>
+    </row>
+    <row r="28" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="T28" s="55"/>
       <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AD28" s="52"/>
-    </row>
-    <row r="29" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="55"/>
+      <c r="AC28" s="52"/>
+    </row>
+    <row r="29" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="T29" s="55"/>
       <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AD29" s="52"/>
-    </row>
-    <row r="30" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z29" s="55"/>
+      <c r="AC29" s="52"/>
+    </row>
+    <row r="30" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AD30" s="52"/>
-    </row>
-    <row r="31" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z30" s="55"/>
+      <c r="AC30" s="52"/>
+    </row>
+    <row r="31" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="T31" s="55"/>
       <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AD31" s="52"/>
-    </row>
-    <row r="32" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="55"/>
+      <c r="AC31" s="52"/>
+    </row>
+    <row r="32" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AD32" s="52"/>
-    </row>
-    <row r="33" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="55"/>
+      <c r="AC32" s="52"/>
+    </row>
+    <row r="33" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="G33" s="56"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="T33" s="55"/>
       <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AD33" s="52"/>
-    </row>
-    <row r="34" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z33" s="55"/>
+      <c r="AC33" s="52"/>
+    </row>
+    <row r="34" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="T34" s="55"/>
       <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AD34" s="52"/>
-    </row>
-    <row r="35" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="55"/>
+      <c r="AC34" s="52"/>
+    </row>
+    <row r="35" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="T35" s="55"/>
       <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="AA35" s="55"/>
-    </row>
-    <row r="36" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="55"/>
+    </row>
+    <row r="36" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="51"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L36" s="54"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L44" s="2"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L45" s="2"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L46" s="2"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="G47" s="33"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L47" s="2"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="40"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="40"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="40"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="40"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="M73" s="2"/>
-      <c r="AD73" s="4"/>
-    </row>
-    <row r="74" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L73" s="2"/>
+      <c r="AC73" s="4"/>
+    </row>
+    <row r="74" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="M74" s="2"/>
-      <c r="AD74" s="4"/>
-    </row>
-    <row r="75" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L74" s="2"/>
+      <c r="AC74" s="4"/>
+    </row>
+    <row r="75" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="M120" s="2"/>
-    </row>
-    <row r="121" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="M121" s="2"/>
+      <c r="L121" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:AD2">
+  <conditionalFormatting sqref="A2:AC2">
     <cfRule type="cellIs" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B3">
+  <conditionalFormatting sqref="A3">
     <cfRule type="cellIs" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
+  <conditionalFormatting sqref="A4">
     <cfRule type="cellIs" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="C6">
     <cfRule type="cellIs" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
+  <conditionalFormatting sqref="A7">
     <cfRule type="cellIs" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="C7">
     <cfRule type="cellIs" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B8">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="C8">
     <cfRule type="cellIs" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B9">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="C9">
     <cfRule type="cellIs" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10">
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
+  <conditionalFormatting sqref="A12">
     <cfRule type="cellIs" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
+  <conditionalFormatting sqref="A13">
     <cfRule type="cellIs" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
+  <conditionalFormatting sqref="A14">
     <cfRule type="cellIs" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
+  <conditionalFormatting sqref="A15">
     <cfRule type="cellIs" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+  <conditionalFormatting sqref="A16">
     <cfRule type="cellIs" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
+  <conditionalFormatting sqref="A17">
     <cfRule type="cellIs" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+  <conditionalFormatting sqref="A18">
     <cfRule type="cellIs" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19">
+  <conditionalFormatting sqref="A19">
     <cfRule type="cellIs" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
+  <conditionalFormatting sqref="A20">
     <cfRule type="cellIs" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
+  <conditionalFormatting sqref="A21">
     <cfRule type="cellIs" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
+  <conditionalFormatting sqref="A22">
     <cfRule type="cellIs" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:B23">
+  <conditionalFormatting sqref="A23">
     <cfRule type="cellIs" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B24">
+  <conditionalFormatting sqref="A24">
     <cfRule type="cellIs" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B25">
+  <conditionalFormatting sqref="A25">
     <cfRule type="cellIs" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="C25">
     <cfRule type="cellIs" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="A26">
     <cfRule type="cellIs" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
+  <conditionalFormatting sqref="A27">
     <cfRule type="cellIs" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28">
+  <conditionalFormatting sqref="A28">
     <cfRule type="cellIs" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29">
+  <conditionalFormatting sqref="A29">
     <cfRule type="cellIs" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="C29">
     <cfRule type="cellIs" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="A30">
     <cfRule type="cellIs" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="C30">
     <cfRule type="cellIs" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B31">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B32">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="C32">
     <cfRule type="cellIs" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B33">
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="C33">
     <cfRule type="cellIs" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:B34">
+  <conditionalFormatting sqref="A34">
     <cfRule type="cellIs" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B35">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="C35">
     <cfRule type="cellIs" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:B36">
+  <conditionalFormatting sqref="A36">
     <cfRule type="cellIs" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="C36">
     <cfRule type="cellIs" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
+  <conditionalFormatting sqref="A37">
     <cfRule type="cellIs" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="C37">
     <cfRule type="cellIs" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B38">
+  <conditionalFormatting sqref="A38">
     <cfRule type="cellIs" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="C38">
     <cfRule type="cellIs" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:B39">
+  <conditionalFormatting sqref="A39">
     <cfRule type="cellIs" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="C39">
     <cfRule type="cellIs" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B40">
+  <conditionalFormatting sqref="A40">
     <cfRule type="cellIs" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="C40">
     <cfRule type="cellIs" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:B41">
+  <conditionalFormatting sqref="A41">
     <cfRule type="cellIs" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="C41">
     <cfRule type="cellIs" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
+  <conditionalFormatting sqref="A42">
     <cfRule type="cellIs" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="C42">
     <cfRule type="cellIs" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:B43">
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="C43">
     <cfRule type="cellIs" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:B44">
+  <conditionalFormatting sqref="A44">
     <cfRule type="cellIs" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="C44">
     <cfRule type="cellIs" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B45">
+  <conditionalFormatting sqref="A45">
     <cfRule type="cellIs" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B46">
+  <conditionalFormatting sqref="A46">
     <cfRule type="cellIs" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="C46">
     <cfRule type="cellIs" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B47">
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="C47">
     <cfRule type="cellIs" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B48">
+  <conditionalFormatting sqref="A48">
     <cfRule type="cellIs" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="C48">
     <cfRule type="cellIs" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B49">
+  <conditionalFormatting sqref="A49">
     <cfRule type="cellIs" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="C49">
     <cfRule type="cellIs" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B50">
+  <conditionalFormatting sqref="A50">
     <cfRule type="cellIs" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="C50">
     <cfRule type="cellIs" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
+  <conditionalFormatting sqref="A51">
     <cfRule type="cellIs" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="C51">
     <cfRule type="cellIs" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:B52">
+  <conditionalFormatting sqref="A52">
     <cfRule type="cellIs" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="C52">
     <cfRule type="cellIs" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B53">
+  <conditionalFormatting sqref="A53">
     <cfRule type="cellIs" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="C53">
     <cfRule type="cellIs" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
+  <conditionalFormatting sqref="A54">
     <cfRule type="cellIs" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="C54">
     <cfRule type="cellIs" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B55">
+  <conditionalFormatting sqref="A55">
     <cfRule type="cellIs" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="C55">
     <cfRule type="cellIs" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B56">
+  <conditionalFormatting sqref="A56">
     <cfRule type="cellIs" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="C56">
     <cfRule type="cellIs" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:B57">
+  <conditionalFormatting sqref="A57">
     <cfRule type="cellIs" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="C57">
     <cfRule type="cellIs" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
+  <conditionalFormatting sqref="A58">
     <cfRule type="cellIs" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="C58">
     <cfRule type="cellIs" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B59">
+  <conditionalFormatting sqref="A59">
     <cfRule type="cellIs" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="C59">
     <cfRule type="cellIs" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
+  <conditionalFormatting sqref="A60">
     <cfRule type="cellIs" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="C60">
     <cfRule type="cellIs" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
+  <conditionalFormatting sqref="A61">
     <cfRule type="cellIs" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="C61">
     <cfRule type="cellIs" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
+  <conditionalFormatting sqref="A62">
     <cfRule type="cellIs" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="C62">
     <cfRule type="cellIs" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
+  <conditionalFormatting sqref="A63">
     <cfRule type="cellIs" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="C63">
     <cfRule type="cellIs" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B64">
+  <conditionalFormatting sqref="A64">
     <cfRule type="cellIs" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="C64">
     <cfRule type="cellIs" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="C65">
     <cfRule type="cellIs" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B66">
+  <conditionalFormatting sqref="A66">
     <cfRule type="cellIs" priority="129" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="C66">
     <cfRule type="cellIs" priority="130" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B67">
+  <conditionalFormatting sqref="A67">
     <cfRule type="cellIs" priority="131" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="C67">
     <cfRule type="cellIs" priority="132" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B68">
+  <conditionalFormatting sqref="A68">
     <cfRule type="cellIs" priority="133" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="C68">
     <cfRule type="cellIs" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:B69">
+  <conditionalFormatting sqref="A69">
     <cfRule type="cellIs" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="C69">
     <cfRule type="cellIs" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B70">
+  <conditionalFormatting sqref="A70">
     <cfRule type="cellIs" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="C70">
     <cfRule type="cellIs" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B71">
+  <conditionalFormatting sqref="A71">
     <cfRule type="cellIs" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="C71">
     <cfRule type="cellIs" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B72">
+  <conditionalFormatting sqref="A72">
     <cfRule type="cellIs" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="C72">
     <cfRule type="cellIs" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:B73">
+  <conditionalFormatting sqref="A73">
     <cfRule type="cellIs" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="C73">
     <cfRule type="cellIs" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:B74">
+  <conditionalFormatting sqref="A74">
     <cfRule type="cellIs" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="C74">
     <cfRule type="cellIs" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B75">
+  <conditionalFormatting sqref="A75">
     <cfRule type="cellIs" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="C75">
     <cfRule type="cellIs" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:B76">
+  <conditionalFormatting sqref="A76">
     <cfRule type="cellIs" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="C76">
     <cfRule type="cellIs" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:B77">
+  <conditionalFormatting sqref="A77">
     <cfRule type="cellIs" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="C77">
     <cfRule type="cellIs" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:B78">
+  <conditionalFormatting sqref="A78">
     <cfRule type="cellIs" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="C78">
     <cfRule type="cellIs" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:B79">
+  <conditionalFormatting sqref="A79">
     <cfRule type="cellIs" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
+  <conditionalFormatting sqref="C79">
     <cfRule type="cellIs" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:B80">
+  <conditionalFormatting sqref="A80">
     <cfRule type="cellIs" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
+  <conditionalFormatting sqref="C80">
     <cfRule type="cellIs" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:B81">
+  <conditionalFormatting sqref="A81">
     <cfRule type="cellIs" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81">
+  <conditionalFormatting sqref="C81">
     <cfRule type="cellIs" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B82">
+  <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
+  <conditionalFormatting sqref="C82">
     <cfRule type="cellIs" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:B83">
+  <conditionalFormatting sqref="A83">
     <cfRule type="cellIs" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
+  <conditionalFormatting sqref="C83">
     <cfRule type="cellIs" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:B84">
+  <conditionalFormatting sqref="A84">
     <cfRule type="cellIs" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="C84">
     <cfRule type="cellIs" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:B85">
+  <conditionalFormatting sqref="A85">
     <cfRule type="cellIs" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
+  <conditionalFormatting sqref="C85">
     <cfRule type="cellIs" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:B86">
+  <conditionalFormatting sqref="A86">
     <cfRule type="cellIs" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
+  <conditionalFormatting sqref="C86">
     <cfRule type="cellIs" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:B87">
+  <conditionalFormatting sqref="A87">
     <cfRule type="cellIs" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="C87">
     <cfRule type="cellIs" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:B88">
+  <conditionalFormatting sqref="A88">
     <cfRule type="cellIs" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
+  <conditionalFormatting sqref="C88">
     <cfRule type="cellIs" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:B89">
+  <conditionalFormatting sqref="A89">
     <cfRule type="cellIs" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
+  <conditionalFormatting sqref="C89">
     <cfRule type="cellIs" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:B90">
+  <conditionalFormatting sqref="A90">
     <cfRule type="cellIs" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
+  <conditionalFormatting sqref="C90">
     <cfRule type="cellIs" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:B91">
+  <conditionalFormatting sqref="A91">
     <cfRule type="cellIs" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
+  <conditionalFormatting sqref="C91">
     <cfRule type="cellIs" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92">
+  <conditionalFormatting sqref="A92">
     <cfRule type="cellIs" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
+  <conditionalFormatting sqref="C92">
     <cfRule type="cellIs" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:B93">
+  <conditionalFormatting sqref="A93">
     <cfRule type="cellIs" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="C93">
     <cfRule type="cellIs" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B94">
+  <conditionalFormatting sqref="A94">
     <cfRule type="cellIs" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
+  <conditionalFormatting sqref="C94">
     <cfRule type="cellIs" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:B95">
+  <conditionalFormatting sqref="A95">
     <cfRule type="cellIs" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="C95">
     <cfRule type="cellIs" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:B96">
+  <conditionalFormatting sqref="A96">
     <cfRule type="cellIs" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
+  <conditionalFormatting sqref="C96">
     <cfRule type="cellIs" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:B97">
+  <conditionalFormatting sqref="A97">
     <cfRule type="cellIs" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
+  <conditionalFormatting sqref="C97">
     <cfRule type="cellIs" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:B98">
+  <conditionalFormatting sqref="A98">
     <cfRule type="cellIs" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
+  <conditionalFormatting sqref="C98">
     <cfRule type="cellIs" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99:B99">
+  <conditionalFormatting sqref="A99">
     <cfRule type="cellIs" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
+  <conditionalFormatting sqref="C99">
     <cfRule type="cellIs" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:B100">
+  <conditionalFormatting sqref="A100">
     <cfRule type="cellIs" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
+  <conditionalFormatting sqref="C100">
     <cfRule type="cellIs" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:B101">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
+  <conditionalFormatting sqref="C101">
     <cfRule type="cellIs" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:B102">
+  <conditionalFormatting sqref="A102">
     <cfRule type="cellIs" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
+  <conditionalFormatting sqref="C102">
     <cfRule type="cellIs" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:B103">
+  <conditionalFormatting sqref="A103">
     <cfRule type="cellIs" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
+  <conditionalFormatting sqref="C103">
     <cfRule type="cellIs" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:B104">
+  <conditionalFormatting sqref="A104">
     <cfRule type="cellIs" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
+  <conditionalFormatting sqref="C104">
     <cfRule type="cellIs" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:B105">
+  <conditionalFormatting sqref="A105">
     <cfRule type="cellIs" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
+  <conditionalFormatting sqref="C105">
     <cfRule type="cellIs" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106:B106">
+  <conditionalFormatting sqref="A106">
     <cfRule type="cellIs" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
+  <conditionalFormatting sqref="C106">
     <cfRule type="cellIs" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:B107">
+  <conditionalFormatting sqref="A107">
     <cfRule type="cellIs" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
+  <conditionalFormatting sqref="C107">
     <cfRule type="cellIs" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:B108">
+  <conditionalFormatting sqref="A108">
     <cfRule type="cellIs" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
+  <conditionalFormatting sqref="C108">
     <cfRule type="cellIs" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:B109">
+  <conditionalFormatting sqref="A109">
     <cfRule type="cellIs" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D109">
+  <conditionalFormatting sqref="C109">
     <cfRule type="cellIs" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:B110">
+  <conditionalFormatting sqref="A110">
     <cfRule type="cellIs" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110">
+  <conditionalFormatting sqref="C110">
     <cfRule type="cellIs" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:B111">
+  <conditionalFormatting sqref="A111">
     <cfRule type="cellIs" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D111">
+  <conditionalFormatting sqref="C111">
     <cfRule type="cellIs" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:B112">
+  <conditionalFormatting sqref="A112">
     <cfRule type="cellIs" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D112">
+  <conditionalFormatting sqref="C112">
     <cfRule type="cellIs" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:B113">
+  <conditionalFormatting sqref="A113">
     <cfRule type="cellIs" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
+  <conditionalFormatting sqref="C113">
     <cfRule type="cellIs" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:B114">
+  <conditionalFormatting sqref="A114">
     <cfRule type="cellIs" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
+  <conditionalFormatting sqref="C114">
     <cfRule type="cellIs" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115:B115">
+  <conditionalFormatting sqref="A115">
     <cfRule type="cellIs" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
+  <conditionalFormatting sqref="C115">
     <cfRule type="cellIs" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116:B116">
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
+  <conditionalFormatting sqref="C116">
     <cfRule type="cellIs" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:B117">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
+  <conditionalFormatting sqref="C117">
     <cfRule type="cellIs" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A118:B118">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
+  <conditionalFormatting sqref="C118">
     <cfRule type="cellIs" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119:B119">
+  <conditionalFormatting sqref="A119">
     <cfRule type="cellIs" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="C119">
     <cfRule type="cellIs" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:B120">
+  <conditionalFormatting sqref="A120">
     <cfRule type="cellIs" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
+  <conditionalFormatting sqref="C120">
     <cfRule type="cellIs" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:B121">
+  <conditionalFormatting sqref="A121">
     <cfRule type="cellIs" priority="239" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
+  <conditionalFormatting sqref="C121">
     <cfRule type="cellIs" priority="240" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4111,18 +4059,18 @@
       <c r="I2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="64"/>
       <c r="O2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="62"/>
       <c r="U2" s="63" t="s">
         <v>42</v>
@@ -4132,10 +4080,10 @@
         <v>43</v>
       </c>
       <c r="X2" s="62"/>
-      <c r="Y2" s="67" t="s">
+      <c r="Y2" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="68"/>
+      <c r="Z2" s="66"/>
       <c r="AA2" s="63" t="s">
         <v>44</v>
       </c>
@@ -4289,124 +4237,124 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="C4" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="H4" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="I4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="J4" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="K4" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="L4" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="M4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="N4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="O4" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="P4" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="R4" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="S4" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="T4" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="U4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="V4" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="V4" s="40" t="s">
+      <c r="W4" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="X4" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="X4" s="40" t="s">
+      <c r="Y4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="40" t="s">
+      <c r="Z4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="Z4" s="40" t="s">
+      <c r="AA4" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AA4" s="40" t="s">
+      <c r="AB4" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AB4" s="40" t="s">
+      <c r="AC4" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="AC4" s="40" t="s">
+      <c r="AD4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="AD4" s="40" t="s">
+      <c r="AE4" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="AE4" s="40" t="s">
+      <c r="AF4" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AF4" s="40" t="s">
+      <c r="AG4" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="40" t="s">
+      <c r="AH4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="40" t="s">
+      <c r="AI4" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="AI4" s="40" t="s">
+      <c r="AJ4" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="AJ4" s="40" t="s">
+      <c r="AK4" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AK4" s="40" t="s">
+      <c r="AL4" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="AL4" s="40" t="s">
+      <c r="AM4" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="AM4" s="40" t="s">
+      <c r="AN4" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="AN4" s="40" t="s">
-        <v>126</v>
       </c>
       <c r="AP4" s="18"/>
       <c r="AR4" s="18"/>
@@ -5909,6 +5857,11 @@
   </sheetData>
   <autoFilter ref="A1:AP49"/>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -5919,11 +5872,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 AJ4 AL4 AN4">
     <cfRule type="cellIs" priority="1" operator="lessThan">
@@ -6101,7 +6049,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -6171,34 +6119,34 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="69" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -6252,25 +6200,25 @@
         <v>56</v>
       </c>
       <c r="O3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="S3" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="30" t="s">
+      <c r="T3" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="U3" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>135</v>
       </c>
       <c r="W3" s="35"/>
     </row>
@@ -6856,16 +6804,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
     <mergeCell ref="J2"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="3" operator="lessThan">
@@ -7103,7 +7051,7 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7112,7 +7060,7 @@
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -1168,22 +1168,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1492,11 +1492,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -3946,10 +3946,10 @@
   <dimension ref="A1:AR141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,18 +4059,18 @@
       <c r="I2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="64"/>
       <c r="O2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
       <c r="T2" s="62"/>
       <c r="U2" s="63" t="s">
         <v>42</v>
@@ -4080,10 +4080,10 @@
         <v>43</v>
       </c>
       <c r="X2" s="62"/>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="66"/>
+      <c r="Z2" s="68"/>
       <c r="AA2" s="63" t="s">
         <v>44</v>
       </c>
@@ -5857,11 +5857,6 @@
   </sheetData>
   <autoFilter ref="A1:AP49"/>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -5872,6 +5867,11 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 AJ4 AL4 AN4">
     <cfRule type="cellIs" priority="1" operator="lessThan">
@@ -6049,11 +6049,11 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6119,34 +6119,34 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -6804,16 +6804,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="E2"/>
     <mergeCell ref="F2"/>
     <mergeCell ref="G2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="3" operator="lessThan">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>Eduardo</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>DIF</t>
+  </si>
+  <si>
+    <t>Código P.</t>
+  </si>
+  <si>
+    <t>Régimen Fiscal</t>
   </si>
 </sst>
 </file>
@@ -779,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1069,12 +1075,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1147,6 +1179,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,22 +1203,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1490,13 +1531,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1505,31 +1546,32 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="40.85546875" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="32" max="32" width="40.85546875" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -1545,1202 +1587,1515 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="I1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="J1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="K1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="L1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="M1" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="O1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="P1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="47" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="S1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="58" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="47" t="s">
+      <c r="V1" s="60"/>
+      <c r="W1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="X1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="Y1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="58" t="s">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="58" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="47" t="s">
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="49" t="s">
+      <c r="AF1" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-    </row>
-    <row r="3" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="50" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD2" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" s="55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="51"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AC3" s="52"/>
-    </row>
-    <row r="4" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="51"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AF3" s="52"/>
+    </row>
+    <row r="4" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="53"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="51"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AC4" s="52"/>
-    </row>
-    <row r="5" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="51"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AF4" s="52"/>
+    </row>
+    <row r="5" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="51"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AC5" s="52"/>
-    </row>
-    <row r="6" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="51"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AF5" s="52"/>
+    </row>
+    <row r="6" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="53"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="51"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AC6" s="52"/>
-    </row>
-    <row r="7" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="53"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="51"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AF6" s="52"/>
+    </row>
+    <row r="7" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="51"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AC7" s="52"/>
-    </row>
-    <row r="8" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="51"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AF7" s="52"/>
+    </row>
+    <row r="8" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="53"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="51"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AC8" s="52"/>
-    </row>
-    <row r="9" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="53"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="51"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AF8" s="52"/>
+    </row>
+    <row r="9" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="51"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AC9" s="52"/>
-    </row>
-    <row r="10" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="51"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AF9" s="52"/>
+    </row>
+    <row r="10" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="53"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="51"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AC10" s="52"/>
-    </row>
-    <row r="11" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="53"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="51"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AF10" s="52"/>
+    </row>
+    <row r="11" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="51"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AC11" s="52"/>
-    </row>
-    <row r="12" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="51"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AF11" s="52"/>
+    </row>
+    <row r="12" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="53"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="51"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AC12" s="52"/>
-    </row>
-    <row r="13" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="53"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="51"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AF12" s="52"/>
+    </row>
+    <row r="13" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="51"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AC13" s="52"/>
-    </row>
-    <row r="14" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="51"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AF13" s="52"/>
+    </row>
+    <row r="14" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="53"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AC14" s="52"/>
-    </row>
-    <row r="15" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="53"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="51"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AF14" s="52"/>
+    </row>
+    <row r="15" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="51"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AC15" s="52"/>
-    </row>
-    <row r="16" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="51"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AF15" s="52"/>
+    </row>
+    <row r="16" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="53"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="51"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AC16" s="52"/>
-    </row>
-    <row r="17" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="53"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="51"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AF16" s="52"/>
+    </row>
+    <row r="17" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="51"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AC17" s="52"/>
-    </row>
-    <row r="18" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="51"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AF17" s="52"/>
+    </row>
+    <row r="18" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="53"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="51"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AC18" s="52"/>
-    </row>
-    <row r="19" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="53"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="51"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AF18" s="52"/>
+    </row>
+    <row r="19" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="51"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AC19" s="52"/>
-    </row>
-    <row r="20" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="51"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AF19" s="52"/>
+    </row>
+    <row r="20" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="53"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="51"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AC20" s="52"/>
-    </row>
-    <row r="21" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="53"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="51"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AF20" s="52"/>
+    </row>
+    <row r="21" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="51"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AC21" s="52"/>
-    </row>
-    <row r="22" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="51"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AF21" s="52"/>
+    </row>
+    <row r="22" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="53"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="51"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AC22" s="52"/>
-    </row>
-    <row r="23" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="53"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="51"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AF22" s="52"/>
+    </row>
+    <row r="23" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="51"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AC23" s="52"/>
-    </row>
-    <row r="24" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="51"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AF23" s="52"/>
+    </row>
+    <row r="24" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="53"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="51"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AC24" s="52"/>
-    </row>
-    <row r="25" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="53"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="51"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AF24" s="52"/>
+    </row>
+    <row r="25" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="51"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AC25" s="52"/>
-    </row>
-    <row r="26" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="51"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AF25" s="52"/>
+    </row>
+    <row r="26" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="51"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AC26" s="52"/>
-    </row>
-    <row r="27" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="53"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AF26" s="52"/>
+    </row>
+    <row r="27" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="51"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AC27" s="52"/>
-    </row>
-    <row r="28" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="51"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AF27" s="52"/>
+    </row>
+    <row r="28" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="51"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AC28" s="52"/>
-    </row>
-    <row r="29" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="53"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="51"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AF28" s="52"/>
+    </row>
+    <row r="29" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="51"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AC29" s="52"/>
-    </row>
-    <row r="30" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="51"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AF29" s="52"/>
+    </row>
+    <row r="30" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="51"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AC30" s="52"/>
-    </row>
-    <row r="31" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="53"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="51"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AF30" s="52"/>
+    </row>
+    <row r="31" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="51"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AC31" s="52"/>
-    </row>
-    <row r="32" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="51"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AF31" s="52"/>
+    </row>
+    <row r="32" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="51"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AC32" s="52"/>
-    </row>
-    <row r="33" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="53"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="51"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AF32" s="52"/>
+    </row>
+    <row r="33" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="51"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AC33" s="52"/>
-    </row>
-    <row r="34" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="51"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AF33" s="52"/>
+    </row>
+    <row r="34" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="51"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AC34" s="52"/>
-    </row>
-    <row r="35" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="51"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AF34" s="52"/>
+    </row>
+    <row r="35" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="51"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="Z35" s="55"/>
-    </row>
-    <row r="36" spans="1:29" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="51"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="AC35" s="55"/>
+    </row>
+    <row r="36" spans="1:32" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="51"/>
-    </row>
-    <row r="37" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="51"/>
+    </row>
+    <row r="37" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="40"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="40"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="L73" s="2"/>
-      <c r="AC73" s="4"/>
-    </row>
-    <row r="74" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="O73" s="2"/>
+      <c r="AF73" s="4"/>
+    </row>
+    <row r="74" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="L74" s="2"/>
-      <c r="AC74" s="4"/>
-    </row>
-    <row r="75" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="O74" s="2"/>
+      <c r="AF74" s="4"/>
+    </row>
+    <row r="75" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="5:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="5:32" ht="15" x14ac:dyDescent="0.25">
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="5:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="5:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="L121" s="2"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="O121" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="8">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="L1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:AC2">
+  <conditionalFormatting sqref="A2:AF2">
     <cfRule type="cellIs" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3949,7 +4304,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,7 +4322,7 @@
     <col min="33" max="36" width="9.85546875" customWidth="1"/>
     <col min="37" max="37" width="10.5703125" style="9" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.85546875" style="25" customWidth="1"/>
     <col min="42" max="42" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -4044,74 +4399,74 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="61" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="61" t="s">
+      <c r="V2" s="65"/>
+      <c r="W2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="67" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="63" t="s">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="61" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="63" t="s">
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="61" t="s">
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63" t="s">
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="61" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="63" t="s">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="64"/>
+      <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -5857,6 +6212,11 @@
   </sheetData>
   <autoFilter ref="A1:AP49"/>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -5867,11 +6227,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 AJ4 AL4 AN4">
     <cfRule type="cellIs" priority="1" operator="lessThan">
@@ -6049,11 +6404,11 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6119,31 +6474,31 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="71" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="71" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="71" t="s">
         <v>75</v>
       </c>
       <c r="J2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="71" t="s">
         <v>77</v>
       </c>
       <c r="L2" s="70" t="s">
@@ -6223,17 +6578,69 @@
       <c r="W3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="25"/>
-      <c r="T4" s="18"/>
+      <c r="A4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6804,44 +7211,24 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
     <mergeCell ref="J2"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4">
     <cfRule type="cellIs" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D6:D36">
+  <conditionalFormatting sqref="D6:D36">
     <cfRule type="cellIs" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7010,7 +7397,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3 O1:S2 O4:S1048576">
+  <conditionalFormatting sqref="W3 O1:S2 O5:S1048576">
     <cfRule type="cellIs" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7055,10 +7442,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="57" t="s">
         <v>127</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Otros Pagos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Deducciones!$A$1:$X$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Deducciones!$A$1:$Y$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Percepciones!$A$1:$AP$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="139">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>Régimen Fiscal</t>
+  </si>
+  <si>
+    <t>332/004</t>
+  </si>
+  <si>
+    <t>Vales de despensa d</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1182,6 +1188,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,30 +1215,30 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1533,11 +1545,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1587,10 +1599,10 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1615,7 @@
       <c r="K1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="58" t="s">
@@ -1615,39 +1627,39 @@
       <c r="O1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="60"/>
+      <c r="Q1" s="62"/>
       <c r="R1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="59" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="47" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="59" t="s">
+      <c r="Y1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="59" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="62"/>
       <c r="AE1" s="47" t="s">
         <v>21</v>
       </c>
@@ -4399,74 +4411,74 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="62" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="64" t="s">
         <v>41</v>
       </c>
       <c r="P2" s="69"/>
       <c r="Q2" s="69"/>
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="62" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="66" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="64" t="s">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="62" t="s">
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64" t="s">
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="62" t="s">
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="65"/>
+      <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6212,11 +6224,6 @@
   </sheetData>
   <autoFilter ref="A1:AP49"/>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -6227,6 +6234,11 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 AJ4 AL4 AN4">
     <cfRule type="cellIs" priority="1" operator="lessThan">
@@ -6402,13 +6414,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,15 +6439,16 @@
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="31" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" style="74" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.5703125" style="25" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="19" t="s">
         <v>57</v>
       </c>
@@ -6472,36 +6485,39 @@
       <c r="N1" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+      <c r="O1" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="73" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -6510,8 +6526,11 @@
       <c r="N2" s="29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O2" s="76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -6554,30 +6573,33 @@
       <c r="N3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="R3" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="S3" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="T3" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="U3" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="V3" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="35"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="35"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>86</v>
       </c>
@@ -6641,9 +6663,12 @@
       <c r="U4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -6658,10 +6683,11 @@
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
-      <c r="T5" s="18"/>
-      <c r="W5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O5" s="40"/>
+      <c r="U5" s="18"/>
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="D6" s="36"/>
@@ -6672,10 +6698,11 @@
       <c r="L6" s="36"/>
       <c r="M6" s="18"/>
       <c r="N6" s="25"/>
-      <c r="T6" s="18"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O6" s="25"/>
+      <c r="U6" s="18"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="D7" s="36"/>
@@ -6686,10 +6713,11 @@
       <c r="L7" s="36"/>
       <c r="M7" s="18"/>
       <c r="N7" s="25"/>
-      <c r="T7" s="18"/>
-      <c r="W7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O7" s="25"/>
+      <c r="U7" s="18"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="D8" s="36"/>
@@ -6700,10 +6728,11 @@
       <c r="L8" s="36"/>
       <c r="M8" s="18"/>
       <c r="N8" s="25"/>
-      <c r="T8" s="18"/>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O8" s="25"/>
+      <c r="U8" s="18"/>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="D9" s="36"/>
@@ -6714,10 +6743,11 @@
       <c r="L9" s="36"/>
       <c r="M9" s="18"/>
       <c r="N9" s="25"/>
-      <c r="T9" s="18"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O9" s="25"/>
+      <c r="U9" s="18"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="D10" s="36"/>
@@ -6728,10 +6758,11 @@
       <c r="L10" s="36"/>
       <c r="M10" s="18"/>
       <c r="N10" s="25"/>
-      <c r="T10" s="18"/>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O10" s="25"/>
+      <c r="U10" s="18"/>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="D11" s="36"/>
@@ -6742,10 +6773,11 @@
       <c r="L11" s="36"/>
       <c r="M11" s="18"/>
       <c r="N11" s="25"/>
-      <c r="T11" s="18"/>
-      <c r="W11" s="18"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O11" s="25"/>
+      <c r="U11" s="18"/>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="D12" s="36"/>
@@ -6756,10 +6788,11 @@
       <c r="L12" s="36"/>
       <c r="M12" s="18"/>
       <c r="N12"/>
-      <c r="T12" s="18"/>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O12"/>
+      <c r="U12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="D13" s="36"/>
@@ -6770,10 +6803,11 @@
       <c r="L13" s="36"/>
       <c r="M13" s="18"/>
       <c r="N13"/>
-      <c r="T13" s="18"/>
-      <c r="W13" s="18"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O13"/>
+      <c r="U13" s="18"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="D14" s="36"/>
@@ -6784,10 +6818,11 @@
       <c r="L14" s="36"/>
       <c r="M14" s="18"/>
       <c r="N14"/>
-      <c r="T14" s="18"/>
-      <c r="W14" s="18"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O14"/>
+      <c r="U14" s="18"/>
+      <c r="X14" s="18"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="D15" s="36"/>
@@ -6798,10 +6833,11 @@
       <c r="L15" s="36"/>
       <c r="M15" s="18"/>
       <c r="N15" s="25"/>
-      <c r="T15" s="18"/>
-      <c r="W15" s="18"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O15" s="25"/>
+      <c r="U15" s="18"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="D16" s="36"/>
@@ -6812,10 +6848,11 @@
       <c r="L16" s="36"/>
       <c r="M16" s="18"/>
       <c r="N16" s="25"/>
-      <c r="T16" s="18"/>
-      <c r="W16" s="18"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O16" s="25"/>
+      <c r="U16" s="18"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="D17" s="36"/>
@@ -6826,10 +6863,11 @@
       <c r="L17" s="36"/>
       <c r="M17" s="18"/>
       <c r="N17" s="25"/>
-      <c r="T17" s="18"/>
-      <c r="W17" s="18"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O17" s="25"/>
+      <c r="U17" s="18"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="D18" s="36"/>
@@ -6840,11 +6878,12 @@
       <c r="L18" s="36"/>
       <c r="M18" s="18"/>
       <c r="N18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="37"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="37"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="D19" s="36"/>
@@ -6855,10 +6894,11 @@
       <c r="L19" s="36"/>
       <c r="M19" s="18"/>
       <c r="N19" s="25"/>
-      <c r="T19" s="18"/>
-      <c r="W19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O19" s="25"/>
+      <c r="U19" s="18"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="D20" s="36"/>
@@ -6869,10 +6909,11 @@
       <c r="L20" s="36"/>
       <c r="M20" s="18"/>
       <c r="N20" s="25"/>
-      <c r="T20" s="18"/>
-      <c r="W20" s="18"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O20" s="25"/>
+      <c r="U20" s="18"/>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="D21" s="36"/>
@@ -6883,10 +6924,11 @@
       <c r="L21" s="36"/>
       <c r="M21" s="18"/>
       <c r="N21"/>
-      <c r="T21" s="18"/>
-      <c r="W21" s="18"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O21"/>
+      <c r="U21" s="18"/>
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="D22" s="36"/>
@@ -6897,10 +6939,11 @@
       <c r="L22" s="36"/>
       <c r="M22" s="18"/>
       <c r="N22" s="25"/>
-      <c r="T22" s="18"/>
-      <c r="W22" s="18"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O22" s="25"/>
+      <c r="U22" s="18"/>
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="D23" s="36"/>
@@ -6911,10 +6954,11 @@
       <c r="L23" s="36"/>
       <c r="M23" s="18"/>
       <c r="N23" s="25"/>
-      <c r="T23" s="18"/>
-      <c r="W23" s="18"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O23" s="25"/>
+      <c r="U23" s="18"/>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="D24" s="36"/>
@@ -6925,10 +6969,11 @@
       <c r="L24" s="36"/>
       <c r="M24" s="18"/>
       <c r="N24" s="25"/>
-      <c r="T24" s="18"/>
-      <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O24" s="25"/>
+      <c r="U24" s="18"/>
+      <c r="X24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="D25" s="36"/>
@@ -6939,10 +6984,11 @@
       <c r="L25" s="36"/>
       <c r="M25" s="18"/>
       <c r="N25" s="25"/>
-      <c r="T25" s="18"/>
-      <c r="W25" s="18"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O25" s="25"/>
+      <c r="U25" s="18"/>
+      <c r="X25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="40"/>
       <c r="D26" s="36"/>
@@ -6953,10 +6999,11 @@
       <c r="L26" s="36"/>
       <c r="M26" s="18"/>
       <c r="N26" s="25"/>
-      <c r="T26" s="18"/>
-      <c r="W26" s="18"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O26" s="25"/>
+      <c r="U26" s="18"/>
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="D27" s="36"/>
@@ -6967,10 +7014,11 @@
       <c r="L27" s="36"/>
       <c r="M27" s="18"/>
       <c r="N27" s="25"/>
-      <c r="T27" s="18"/>
-      <c r="W27" s="18"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O27" s="25"/>
+      <c r="U27" s="18"/>
+      <c r="X27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="D28" s="36"/>
@@ -6981,10 +7029,11 @@
       <c r="L28" s="36"/>
       <c r="M28" s="18"/>
       <c r="N28" s="25"/>
-      <c r="T28" s="18"/>
-      <c r="W28" s="18"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O28" s="25"/>
+      <c r="U28" s="18"/>
+      <c r="X28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="D29" s="36"/>
@@ -6995,10 +7044,11 @@
       <c r="L29" s="36"/>
       <c r="M29" s="18"/>
       <c r="N29" s="25"/>
-      <c r="T29" s="18"/>
-      <c r="W29" s="18"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O29" s="25"/>
+      <c r="U29" s="18"/>
+      <c r="X29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="D30" s="36"/>
@@ -7009,10 +7059,11 @@
       <c r="L30" s="36"/>
       <c r="M30" s="18"/>
       <c r="N30" s="25"/>
-      <c r="T30" s="18"/>
-      <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O30" s="25"/>
+      <c r="U30" s="18"/>
+      <c r="X30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="D31" s="36"/>
@@ -7023,10 +7074,11 @@
       <c r="L31" s="36"/>
       <c r="M31" s="18"/>
       <c r="N31"/>
-      <c r="T31" s="18"/>
-      <c r="W31" s="18"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O31"/>
+      <c r="U31" s="18"/>
+      <c r="X31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="D32" s="36"/>
@@ -7037,10 +7089,11 @@
       <c r="L32" s="36"/>
       <c r="M32" s="18"/>
       <c r="N32"/>
-      <c r="T32" s="18"/>
-      <c r="W32" s="18"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O32"/>
+      <c r="U32" s="18"/>
+      <c r="X32" s="18"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="D33" s="36"/>
@@ -7051,10 +7104,11 @@
       <c r="L33" s="36"/>
       <c r="M33" s="18"/>
       <c r="N33" s="25"/>
-      <c r="T33" s="18"/>
-      <c r="W33" s="18"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O33" s="25"/>
+      <c r="U33" s="18"/>
+      <c r="X33" s="18"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="D34" s="36"/>
@@ -7065,10 +7119,11 @@
       <c r="L34" s="36"/>
       <c r="M34" s="18"/>
       <c r="N34"/>
-      <c r="T34" s="18"/>
-      <c r="W34" s="18"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O34"/>
+      <c r="U34" s="18"/>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="D35" s="36"/>
@@ -7079,10 +7134,11 @@
       <c r="L35" s="36"/>
       <c r="M35" s="18"/>
       <c r="N35" s="25"/>
-      <c r="T35" s="18"/>
-      <c r="W35" s="18"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O35" s="25"/>
+      <c r="U35" s="18"/>
+      <c r="X35" s="18"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="D36" s="36"/>
@@ -7093,9 +7149,10 @@
       <c r="L36" s="36"/>
       <c r="M36" s="18"/>
       <c r="N36" s="25"/>
-      <c r="T36" s="18"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O36" s="25"/>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="D37" s="36"/>
@@ -7106,123 +7163,140 @@
       <c r="L37" s="36"/>
       <c r="M37" s="18"/>
       <c r="N37"/>
-      <c r="T37" s="18"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O37"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F38" s="36"/>
       <c r="K38" s="36"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
-      <c r="T38" s="18"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O38" s="25"/>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F39" s="36"/>
       <c r="K39" s="36"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
-      <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O39" s="25"/>
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
       <c r="K40" s="36"/>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="T40" s="18"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O40"/>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F41" s="36"/>
       <c r="K41" s="36"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="T41" s="18"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O41"/>
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F42" s="36"/>
       <c r="K42" s="36"/>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="T42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O42"/>
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F43" s="36"/>
       <c r="K43" s="36"/>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
-      <c r="T43" s="18"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O43" s="25"/>
+      <c r="U43" s="18"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F44" s="36"/>
       <c r="K44" s="36"/>
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
-      <c r="T44" s="18"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O44" s="25"/>
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F45" s="36"/>
       <c r="K45" s="36"/>
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
-      <c r="T45" s="18"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O45" s="25"/>
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F46" s="36"/>
       <c r="K46" s="36"/>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
-      <c r="T46" s="18"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O46" s="25"/>
+      <c r="U46" s="18"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K47" s="36"/>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
-      <c r="T47" s="18"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O47" s="25"/>
+      <c r="U47" s="18"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F48" s="36"/>
       <c r="K48" s="36"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
-      <c r="T48" s="18"/>
-    </row>
-    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="O48" s="25"/>
+      <c r="U48" s="18"/>
+    </row>
+    <row r="49" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F49" s="36"/>
       <c r="K49" s="36"/>
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
-      <c r="T49" s="18"/>
-    </row>
-    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="O49" s="25"/>
+      <c r="U49" s="18"/>
+    </row>
+    <row r="50" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F50" s="38"/>
       <c r="K50" s="38"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
-    </row>
-    <row r="51" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="O50" s="25"/>
+    </row>
+    <row r="51" spans="6:21" x14ac:dyDescent="0.25">
       <c r="M51" s="25"/>
       <c r="N51" s="25"/>
-    </row>
-    <row r="52" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="O51" s="25"/>
+    </row>
+    <row r="52" spans="6:21" x14ac:dyDescent="0.25">
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
-    </row>
-    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="O52" s="25"/>
+    </row>
+    <row r="53" spans="6:21" x14ac:dyDescent="0.25">
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="E2"/>
     <mergeCell ref="F2"/>
     <mergeCell ref="G2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4">
+  <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4:O4 Q4:R4 T4:U4">
     <cfRule type="cellIs" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7232,12 +7306,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N11 N15:N17 N19:N20 N22:N30 N33 N35:N36">
+  <conditionalFormatting sqref="N6:O11 N15:O17 N19:O20 N22:O30 N33:O33 N35:O36">
     <cfRule type="cellIs" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5 D5 F5 H5 J5 L5 N5">
+  <conditionalFormatting sqref="B5 D5 F5 H5 J5 L5 N5:O5">
     <cfRule type="cellIs" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7397,12 +7471,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3 O1:S2 O5:S1048576">
+  <conditionalFormatting sqref="X3 P1:T2 P5:T1048576">
     <cfRule type="cellIs" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N39 N43:N53">
+  <conditionalFormatting sqref="N38:O39 N43:O53">
     <cfRule type="cellIs" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7442,10 +7516,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="57" t="s">
         <v>127</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_tmmdc_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -638,12 +638,6 @@
   </si>
   <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>276/009</t>
-  </si>
-  <si>
-    <t>Reembolso infonavit</t>
   </si>
   <si>
     <t>Deducciones</t>
@@ -1112,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1182,12 +1176,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1215,30 +1212,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1599,10 +1590,10 @@
       <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="60"/>
+      <c r="F1" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="63"/>
       <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
@@ -1615,11 +1606,11 @@
       <c r="K1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="58" t="s">
-        <v>135</v>
+      <c r="M1" s="57" t="s">
+        <v>133</v>
       </c>
       <c r="N1" s="47" t="s">
         <v>10</v>
@@ -1627,39 +1618,39 @@
       <c r="O1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="62"/>
+      <c r="Q1" s="65"/>
       <c r="R1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="61" t="s">
+      <c r="T1" s="65"/>
+      <c r="U1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="62"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="47" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="61" t="s">
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="61" t="s">
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="62"/>
+      <c r="AD1" s="65"/>
       <c r="AE1" s="47" t="s">
         <v>21</v>
       </c>
@@ -4411,74 +4402,74 @@
       <c r="AN1" s="23"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="64" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="64" t="s">
+      <c r="V2" s="70"/>
+      <c r="W2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="70" t="s">
+      <c r="X2" s="68"/>
+      <c r="Y2" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="66" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="64" t="s">
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66" t="s">
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="64" t="s">
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66" t="s">
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="64" t="s">
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="66" t="s">
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="67"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6224,6 +6215,11 @@
   </sheetData>
   <autoFilter ref="A1:AP49"/>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -6234,11 +6230,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 AJ4 AL4 AN4">
     <cfRule type="cellIs" priority="1" operator="lessThan">
@@ -6416,7 +6407,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -6439,7 +6430,7 @@
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="31" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" style="74" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" style="58" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.5703125" style="25" customWidth="1"/>
@@ -6485,39 +6476,39 @@
       <c r="N1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="75" t="s">
-        <v>137</v>
+      <c r="O1" s="59" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="75" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -6526,8 +6517,8 @@
       <c r="N2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="76" t="s">
-        <v>138</v>
+      <c r="O2" s="60" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -6573,29 +6564,29 @@
       <c r="N3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="61" t="s">
         <v>56</v>
       </c>
       <c r="P3" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="30" t="s">
+      <c r="T3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="T3" s="30" t="s">
+      <c r="V3" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>134</v>
       </c>
       <c r="X3" s="35"/>
     </row>
@@ -7285,16 +7276,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
     <mergeCell ref="J2"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 D4 F4 H4 J4 L4 N4:O4 Q4:R4 T4:U4">
     <cfRule type="cellIs" priority="3" operator="lessThan">
@@ -7489,13 +7480,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7503,28 +7494,21 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="68"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -7537,83 +7521,80 @@
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
